--- a/各地组播源汇总/甘肃.xlsx
+++ b/各地组播源汇总/甘肃.xlsx
@@ -36,12 +36,6 @@
     <t>甘肃文化影视</t>
   </si>
   <si>
-    <t>甘肃公共</t>
-  </si>
-  <si>
-    <t>甘肃都市</t>
-  </si>
-  <si>
     <t>甘肃少儿</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃科教</t>
+  </si>
+  <si>
+    <t>甘肃公共应急</t>
   </si>
 </sst>
 </file>
@@ -502,19 +502,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -522,16 +522,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -539,16 +539,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -556,16 +556,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -573,390 +573,390 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
